--- a/2026.0.0/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/2026.0.0/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-13T17:19:48+00:00</t>
+    <t>2025-12-13T17:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
